--- a/public/sample/sample_stk26.xlsx
+++ b/public/sample/sample_stk26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE96371-850D-4682-8C0E-8EB9993DA062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157355C-C76F-48C9-B6B0-23669BF20527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1230" windowWidth="38700" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21510" yWindow="4560" windowWidth="23880" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>메모</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L0025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_yh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>실사일자(*)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -68,18 +60,17 @@
     <t>F224MJK07CTJM0M</t>
   </si>
   <si>
-    <t>F224MJK07CTJM0S</t>
-  </si>
-  <si>
-    <t>F224MJK07CTJMXS</t>
-  </si>
-  <si>
     <t>상품코드(*)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>* (*)는 필수입력항목입니다.
+    <t>* 샘플형식에 맞춰 작성해주세요.
+* (*)는 필수입력항목입니다.
 * 실사재고 미입력 시 0개로 입력됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +116,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -317,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +312,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,41 +360,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,124 +677,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF473B99-4CE7-4DF1-A041-320991BD6C2F}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="7" customWidth="1"/>
     <col min="4" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
-        <v>44900</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +776,7 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/sample/sample_stk26.xlsx
+++ b/public/sample/sample_stk26.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9157355C-C76F-48C9-B6B0-23669BF20527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311564D9-E798-F642-8006-BA67B25A5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21510" yWindow="4560" windowWidth="23880" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47780" yWindow="10480" windowWidth="23880" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,25 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>메모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>실사재고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실사일자(*)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장코드(*)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자 아이디(*)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -60,17 +44,15 @@
     <t>F224MJK07CTJM0M</t>
   </si>
   <si>
-    <t>상품코드(*)</t>
+    <t>상품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>* 샘플형식에 맞춰 작성해주세요.
-* (*)는 필수입력항목입니다.
-* 실사재고 미입력 시 0개로 입력됩니다.</t>
+    <t>메모</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023-01-01</t>
+    <t>LOSS사유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,10 +70,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,60 +109,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -194,174 +122,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,110 +454,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF473B99-4CE7-4DF1-A041-320991BD6C2F}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5B2A9-C32D-8B45-B525-11551C7A20E4}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="7" customWidth="1"/>
-    <col min="4" max="9" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>8</v>
+    <row r="1" spans="1:4" ht="31" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample/sample_stk26.xlsx
+++ b/public/sample/sample_stk26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311564D9-E798-F642-8006-BA67B25A5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE63523-43C7-4D4B-81B8-0E2762C85015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47780" yWindow="10480" windowWidth="23880" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29920" yWindow="8520" windowWidth="23880" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>실사재고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>F224MJK07CTJM0L</t>
@@ -44,28 +44,36 @@
     <t>F224MJK07CTJM0M</t>
   </si>
   <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LOSS사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,9 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5B2A9-C32D-8B45-B525-11551C7A20E4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -469,17 +478,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -499,7 +508,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>